--- a/Docs/Tablas laboratorio 6.xlsx
+++ b/Docs/Tablas laboratorio 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanse/Downloads/Universidad de los Andes/2º Semestre/Estructuras de datos y algoritmos/Reto 2/Reto2-G13/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_rodriguez63_uniandes_edu_co/Documents/Sicua Plus Andes/Sicua Plus Andes/Tercer Semestre/Estructuras Datos y Algoritmos/Retos/Reto #2/Reto2-G13/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5BCABA-20D4-014E-8C93-AE421229F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{FE5BCABA-20D4-014E-8C93-AE421229F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5190EC-2520-4424-8449-B639FFD0805E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Reto" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Porcentaje de la muestra [pct]</t>
   </si>
@@ -148,6 +148,141 @@
   </si>
   <si>
     <t>AMD Ryzen(TM) 3750H CPU 2.50 GHz</t>
+  </si>
+  <si>
+    <t>218.75</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>5109.38</t>
+  </si>
+  <si>
+    <t>18437.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16375.0 </t>
+  </si>
+  <si>
+    <t>5203.12</t>
+  </si>
+  <si>
+    <t>16000.0</t>
+  </si>
+  <si>
+    <t>41000.0</t>
+  </si>
+  <si>
+    <t>40671.88</t>
+  </si>
+  <si>
+    <t>39796.88</t>
+  </si>
+  <si>
+    <t>66984.38</t>
+  </si>
+  <si>
+    <t>65593.75</t>
+  </si>
+  <si>
+    <t>65609.38</t>
+  </si>
+  <si>
+    <t>130015.62</t>
+  </si>
+  <si>
+    <t>131140.62</t>
+  </si>
+  <si>
+    <t>124328.12</t>
+  </si>
+  <si>
+    <t>222765.62</t>
+  </si>
+  <si>
+    <t>226203.12</t>
+  </si>
+  <si>
+    <t>228578.12</t>
+  </si>
+  <si>
+    <t>294875.0</t>
+  </si>
+  <si>
+    <t>311218.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 301937.5</t>
+  </si>
+  <si>
+    <t>303125.0</t>
+  </si>
+  <si>
+    <t>296750.0</t>
+  </si>
+  <si>
+    <t>297359.38</t>
+  </si>
+  <si>
+    <t>222531.25</t>
+  </si>
+  <si>
+    <t>228703.12</t>
+  </si>
+  <si>
+    <t>223031.25</t>
+  </si>
+  <si>
+    <t>130500.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 131046.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 130578.12</t>
+  </si>
+  <si>
+    <t>65703.12</t>
+  </si>
+  <si>
+    <t>65843.75</t>
+  </si>
+  <si>
+    <t>66218.75</t>
+  </si>
+  <si>
+    <t>40171.88</t>
+  </si>
+  <si>
+    <t>40750.0</t>
+  </si>
+  <si>
+    <t>40031.25</t>
+  </si>
+  <si>
+    <t>16640.62</t>
+  </si>
+  <si>
+    <t>16203.12</t>
+  </si>
+  <si>
+    <t>16593.75</t>
+  </si>
+  <si>
+    <t>6015.62</t>
+  </si>
+  <si>
+    <t>5859.38</t>
+  </si>
+  <si>
+    <t>5656.25</t>
+  </si>
+  <si>
+    <t>203.12</t>
+  </si>
+  <si>
+    <t>234.38</t>
   </si>
 </sst>
 </file>
@@ -1143,19 +1278,19 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="47" customHeight="1">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="46.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1181,16 +1316,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7">
         <v>2716</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1202,9 +1343,15 @@
       <c r="B3" s="7">
         <v>12571</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="3">
+        <v>5703</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -1216,9 +1363,15 @@
       <c r="B4" s="7">
         <v>21664</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
@@ -1230,9 +1383,15 @@
       <c r="B5" s="7">
         <v>38213</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
@@ -1244,9 +1403,15 @@
       <c r="B6" s="7">
         <v>53767</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -1258,9 +1423,15 @@
       <c r="B7" s="7">
         <v>83569</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
@@ -1272,28 +1443,40 @@
       <c r="B8" s="7">
         <v>125924</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>153373</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="46" customHeight="1">
+    <row r="11" spans="1:8" ht="46.05" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -1319,16 +1502,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="7">
         <v>2716</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
@@ -1340,9 +1529,15 @@
       <c r="B13" s="7">
         <v>12571</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
@@ -1354,9 +1549,15 @@
       <c r="B14" s="7">
         <v>21664</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
@@ -1368,9 +1569,15 @@
       <c r="B15" s="7">
         <v>38213</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
@@ -1382,9 +1589,15 @@
       <c r="B16" s="7">
         <v>53767</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
@@ -1396,9 +1609,15 @@
       <c r="B17" s="7">
         <v>83569</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
@@ -1410,28 +1629,40 @@
       <c r="B18" s="7">
         <v>125924</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="7">
         <v>153373</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="43" customHeight="1">
+    <row r="21" spans="1:8" ht="43.05" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1678,7 @@
       </c>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="32">
+    <row r="24" spans="1:8" ht="28.8">
       <c r="A24" s="10" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8">
       <c r="A26" s="10" t="s">
         <v>3</v>
       </c>
@@ -1477,7 +1708,7 @@
       </c>
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="32">
+    <row r="29" spans="1:8" ht="28.8">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16">
+    <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
         <v>3</v>
       </c>
@@ -1508,12 +1739,13 @@
     <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B2:B3 A4:B4 B5:B9 B12:B19" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Docs/Tablas laboratorio 6.xlsx
+++ b/Docs/Tablas laboratorio 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_rodriguez63_uniandes_edu_co/Documents/Sicua Plus Andes/Sicua Plus Andes/Tercer Semestre/Estructuras Datos y Algoritmos/Retos/Reto #2/Reto2-G13/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanse/Downloads/Universidad de los Andes/2º Semestre/Estructuras de datos y algoritmos/Reto 2/Reto2-G13/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{FE5BCABA-20D4-014E-8C93-AE421229F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5190EC-2520-4424-8449-B639FFD0805E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2469323-5B17-1943-B017-4571F416DFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Reto" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Porcentaje de la muestra [pct]</t>
   </si>
@@ -283,6 +283,10 @@
   </si>
   <si>
     <t>234.38</t>
+  </si>
+  <si>
+    <t>Medium [ms]
+(α: 8)</t>
   </si>
 </sst>
 </file>
@@ -971,7 +975,7 @@
     <tableColumn id="5" xr3:uid="{85167B72-1A4B-DB4D-9A2B-31240A18F3AD}" name="Nationality [ms]_x000a_(α: 8)" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{7B84B38E-5787-9141-A7F7-8054DB88D55A}" name="Medium [ms]_x000a_(α: 4)" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{215D062D-73BC-C44A-BA04-06728B7D4FA7}" name="Medium [ms]_x000a_(α: 2)" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{5EA6DAB9-54AD-074B-823C-7265BAD5A954}" name="Medium [ms]_x000a_(α: 0,8)" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{5EA6DAB9-54AD-074B-823C-7265BAD5A954}" name="Medium [ms]_x000a_(α: 8)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,19 +1282,19 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="46.95" customHeight="1">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1332,11 +1336,17 @@
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="4">
+        <v>31.25</v>
+      </c>
+      <c r="G2" s="3">
+        <v>31.25</v>
+      </c>
+      <c r="H2" s="4">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -1352,11 +1362,17 @@
       <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="3">
+        <v>171.88</v>
+      </c>
+      <c r="G3" s="3">
+        <v>187.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>171.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -1372,11 +1388,17 @@
       <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="3">
+        <v>359.38</v>
+      </c>
+      <c r="G4" s="3">
+        <v>328.12</v>
+      </c>
+      <c r="H4" s="4">
+        <v>359.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="5">
         <v>0.2</v>
       </c>
@@ -1392,11 +1414,17 @@
       <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="3">
+        <v>562.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>593.75</v>
+      </c>
+      <c r="H5" s="4">
+        <v>578.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16">
       <c r="A6" s="5">
         <v>0.3</v>
       </c>
@@ -1412,11 +1440,17 @@
       <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="3">
+        <v>921.88</v>
+      </c>
+      <c r="G6" s="3">
+        <v>953.12</v>
+      </c>
+      <c r="H6" s="4">
+        <v>906.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="5">
         <v>0.5</v>
       </c>
@@ -1432,11 +1466,17 @@
       <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="3">
+        <v>1359.38</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1421.88</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1453.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16">
       <c r="A8" s="5">
         <v>0.8</v>
       </c>
@@ -1452,11 +1492,17 @@
       <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="3">
+        <v>2343.75</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2484.38</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2515.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1472,11 +1518,17 @@
       <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="46.05" customHeight="1">
+      <c r="F9" s="3">
+        <v>2984.38</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3031.25</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3109.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="46" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -1499,10 +1551,10 @@
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1518,11 +1570,17 @@
       <c r="E12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="4">
+        <v>15.62</v>
+      </c>
+      <c r="G12" s="3">
+        <v>31.25</v>
+      </c>
+      <c r="H12" s="4">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16">
       <c r="A13" s="5">
         <v>0.05</v>
       </c>
@@ -1538,11 +1596,17 @@
       <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="3">
+        <v>171.88</v>
+      </c>
+      <c r="G13" s="3">
+        <v>156.25</v>
+      </c>
+      <c r="H13" s="4">
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16">
       <c r="A14" s="5">
         <v>0.1</v>
       </c>
@@ -1558,11 +1622,17 @@
       <c r="E14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>328.12</v>
+      </c>
+      <c r="H14" s="4">
+        <v>359.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16">
       <c r="A15" s="5">
         <v>0.2</v>
       </c>
@@ -1578,11 +1648,17 @@
       <c r="E15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="3">
+        <v>578.12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>562.5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>609.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="5">
         <v>0.3</v>
       </c>
@@ -1598,11 +1674,17 @@
       <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="F16" s="3">
+        <v>921.88</v>
+      </c>
+      <c r="G16" s="3">
+        <v>875</v>
+      </c>
+      <c r="H16" s="4">
+        <v>921.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="5">
         <v>0.5</v>
       </c>
@@ -1618,11 +1700,17 @@
       <c r="E17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" s="3">
+        <v>1437.5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1421.88</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1531.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="5">
         <v>0.8</v>
       </c>
@@ -1638,11 +1726,17 @@
       <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F18" s="3">
+        <v>2406.25</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2359.38</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2484.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -1658,11 +1752,17 @@
       <c r="E19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="43.05" customHeight="1">
+      <c r="F19" s="3">
+        <v>3015.62</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3109.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>16</v>
       </c>
@@ -1678,7 +1778,7 @@
       </c>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="28.8">
+    <row r="24" spans="1:8" ht="32">
       <c r="A24" s="10" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="16">
       <c r="A26" s="10" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1808,7 @@
       </c>
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="28.8">
+    <row r="29" spans="1:8" ht="32">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
@@ -1724,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="16">
       <c r="A31" s="10" t="s">
         <v>3</v>
       </c>
@@ -1751,6 +1851,124 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6ca5caf3e573104b48cd489fb7ebf238">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8ff97dc266d6a6a16fe4e7cad907b60" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -1967,139 +2185,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2122,9 +2211,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>